--- a/revit_alvenaria_estrutural/Curso Alvenaria Estrutural engenhaBIM/Tabela de pré dimensionamento blocos estruturais.xlsx
+++ b/revit_alvenaria_estrutural/Curso Alvenaria Estrutural engenhaBIM/Tabela de pré dimensionamento blocos estruturais.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Dropbox\Curso Alvenaria Estrutural engenhaBIM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="Tensões Vento e Desaprumo" sheetId="18" r:id="rId1"/>
     <sheet name="Flexo-Compressão" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -195,14 +190,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -247,21 +235,32 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,75 +341,115 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -702,7 +747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,806 +755,783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.9296875" customWidth="1"/>
-    <col min="14" max="14" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53" customWidth="1"/>
+    <col min="13" max="13" width="12" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="20" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+      <c r="L5" s="29"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="23">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31">
         <f t="shared" ref="G6:G11" si="0">C6*D6*E6*F6</f>
-        <v>36.4</v>
-      </c>
-      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
         <f t="shared" ref="H6:H11" si="1">(0.613*(G6^2))/1000</f>
-        <v>0.81220047999999989</v>
-      </c>
-      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="31">
         <f>H6*1.5</f>
-        <v>1.2183007199999998</v>
-      </c>
-      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31">
         <f t="shared" ref="J6:J11" si="2">(4100*$N$8)/23.7</f>
         <v>0.40775496524118782</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="31">
         <f t="shared" ref="K6:K11" si="3">I6+J6</f>
-        <v>1.6260556852411876</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" t="s">
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="34">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="23">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31">
         <f t="shared" si="0"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
         <f t="shared" si="1"/>
-        <v>0.75953152000000013</v>
-      </c>
-      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
         <f>H7*3</f>
-        <v>2.2785945600000002</v>
-      </c>
-      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
         <f t="shared" si="2"/>
         <v>0.40775496524118782</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="31">
         <f t="shared" si="3"/>
-        <v>2.6863495252411882</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="23">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31">
         <f t="shared" si="0"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
         <f t="shared" si="1"/>
-        <v>0.75953152000000013</v>
-      </c>
-      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31">
         <f t="shared" ref="I8:I11" si="4">H8*3</f>
-        <v>2.2785945600000002</v>
-      </c>
-      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31">
         <f t="shared" si="2"/>
         <v>0.40775496524118782</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="31">
         <f t="shared" si="3"/>
-        <v>2.6863495252411882</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" t="s">
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="35">
         <f>1/(100*SQRT(N6))</f>
         <v>2.3570226039551587E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="23">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="2"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="K9" s="31">
+        <f t="shared" si="3"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="B10" s="23">
+        <v>6</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31">
         <f t="shared" si="0"/>
-        <v>33.199999999999996</v>
-      </c>
-      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
         <f t="shared" si="1"/>
-        <v>0.67567311999999979</v>
-      </c>
-      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <f>H10*3</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="2"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="K10" s="31">
+        <f t="shared" si="3"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="14">
+        <v>2423</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="23">
+        <v>3</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
         <f t="shared" si="4"/>
-        <v>2.0270193599999993</v>
-      </c>
-      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
         <f t="shared" si="2"/>
         <v>0.40775496524118782</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K11" s="31">
         <f t="shared" si="3"/>
-        <v>2.4347743252411869</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>33.199999999999996</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.67567311999999979</v>
-      </c>
-      <c r="I10" s="2">
-        <f>H10*3</f>
-        <v>2.0270193599999993</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40775496524118782</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="3"/>
-        <v>2.4347743252411869</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10">
-        <v>2423</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>30.4</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.56651008000000003</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="4"/>
-        <v>1.6995302400000001</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40775496524118782</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="3"/>
-        <v>2.1072852052411877</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11">
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="14">
         <f>M10/6</f>
         <v>403.83333333333331</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12">
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="14">
         <v>2.8</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13">
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14">
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="14">
         <v>15</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="14">
         <f>M11*M12*M13</f>
         <v>158.30266666666665</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
+      <c r="N15" s="14"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="25">
+      <c r="L16" s="29"/>
+      <c r="M16" s="36">
         <f>M15*M14</f>
         <v>2374.54</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="23">
         <v>18</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31">
+        <f t="shared" ref="G17:G22" si="5">C17*D17*E17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="31">
+        <f t="shared" ref="H17:H22" si="6">(0.613*(G17^2))/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <f>H17*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="31">
+        <f t="shared" ref="J17:J22" si="7">(4100*$N$8)/23.7</f>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="K17" s="31">
+        <f t="shared" ref="K17:K22" si="8">I17+J17</f>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="14">
+        <v>99</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>4</v>
+      </c>
+      <c r="B18" s="23">
+        <v>15</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="31">
+        <f>H18*3</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="7"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="8"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="N18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" ref="G17:G22" si="5">C17*D17*E17*F17</f>
-        <v>36.4</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" ref="H17:H22" si="6">(0.613*(G17^2))/1000</f>
-        <v>0.81220047999999989</v>
-      </c>
-      <c r="I17" s="2">
-        <f>H17*1.5</f>
-        <v>1.2183007199999998</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" ref="J17:J22" si="7">(4100*$N$8)/23.7</f>
-        <v>0.40775496524118782</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" ref="K17:K22" si="8">I17+J17</f>
-        <v>1.6260556852411876</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17">
-        <v>99</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>3</v>
+      </c>
+      <c r="B19" s="23">
+        <v>12</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31">
         <f t="shared" si="5"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31">
         <f t="shared" si="6"/>
-        <v>0.75953152000000013</v>
-      </c>
-      <c r="I18" s="2">
-        <f>H18*3</f>
-        <v>2.2785945600000002</v>
-      </c>
-      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" ref="I19:I22" si="9">H19*3</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
         <f t="shared" si="7"/>
         <v>0.40775496524118782</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="31">
         <f t="shared" si="8"/>
-        <v>2.6863495252411882</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18">
-        <v>2.5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="5"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="6"/>
-        <v>0.75953152000000013</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" ref="I19:I22" si="9">H19*3</f>
-        <v>2.2785945600000002</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="7"/>
-        <v>0.40775496524118782</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="8"/>
-        <v>2.6863495252411882</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="25">
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="36">
         <f>M17*M18</f>
         <v>247.5</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="3">
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
         <v>2</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="23">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="31">
+        <f t="shared" si="7"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="K20" s="31">
+        <f t="shared" si="8"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="14">
+        <v>493</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="B21" s="23">
+        <v>6</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31">
         <f t="shared" si="5"/>
-        <v>33.199999999999996</v>
-      </c>
-      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31">
         <f t="shared" si="6"/>
-        <v>0.67567311999999979</v>
-      </c>
-      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31">
+        <f>H21*3</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="31">
+        <f t="shared" si="7"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="K21" s="31">
+        <f t="shared" si="8"/>
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="14">
+        <v>3</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="23">
+        <v>3</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="31">
         <f t="shared" si="9"/>
-        <v>2.0270193599999993</v>
-      </c>
-      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="31">
         <f t="shared" si="7"/>
         <v>0.40775496524118782</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K22" s="31">
         <f t="shared" si="8"/>
-        <v>2.4347743252411869</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20">
-        <v>493</v>
-      </c>
-      <c r="N20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>40</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="5"/>
-        <v>33.199999999999996</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="6"/>
-        <v>0.67567311999999979</v>
-      </c>
-      <c r="I21" s="2">
-        <f>H21*3</f>
-        <v>2.0270193599999993</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="7"/>
-        <v>0.40775496524118782</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="8"/>
-        <v>2.4347743252411869</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>40</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="5"/>
-        <v>30.4</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="6"/>
-        <v>0.56651008000000003</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="9"/>
-        <v>1.6995302400000001</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="7"/>
-        <v>0.40775496524118782</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="8"/>
-        <v>2.1072852052411877</v>
-      </c>
-      <c r="M22" s="25">
+        <v>0.40775496524118782</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="36">
         <f>M20*M21</f>
         <v>1479</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="M24" s="23">
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="37">
         <f>M22+M19+M16</f>
         <v>4101.04</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="37" t="s">
         <v>45</v>
       </c>
+      <c r="O24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1524,408 +1546,544 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.265625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="6"/>
-    <col min="9" max="9" width="10.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.86328125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.265625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="11">
         <v>2.8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <f>D3/B3</f>
         <v>19.999999999999996</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="20">
         <v>2401.81</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="21">
         <v>0.875</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="22">
         <v>116.31</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="23">
         <f>(B5/C5)+(D5/1.5)</f>
         <v>2822.4657142857141</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="20">
         <f t="shared" ref="F5:F14" si="0">E5*1.4</f>
         <v>3951.4519999999993</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="23">
         <f>-(B5*0.9)+(D5*1.4)</f>
         <v>-1998.7949999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="20">
         <v>1369</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="21">
         <v>0.875</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="22">
         <v>104.58</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="23">
         <f t="shared" ref="E6:E14" si="1">(B6/C6)+(D6/1.5)</f>
         <v>1634.2914285714287</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>2288.0079999999998</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="23">
         <f>-(B6*0.9)+(D6*1.4)</f>
         <v>-1085.6880000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <f t="shared" ref="A7:A14" si="2">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="27">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21">
         <v>0.875</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="12">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="23">
         <f t="shared" ref="G7:G14" si="3">-(B7*0.9)+(D7*1.4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="27">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21">
         <v>0.875</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="12">
+      <c r="D8" s="22"/>
+      <c r="E8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="27">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21">
         <v>0.875</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="27">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21">
         <v>0.875</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="12">
+      <c r="D10" s="22"/>
+      <c r="E10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="27">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21">
         <v>0.875</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="12">
+      <c r="D11" s="22"/>
+      <c r="E11" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="27">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21">
         <v>0.875</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="12">
+      <c r="D12" s="22"/>
+      <c r="E12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="27">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21">
         <v>0.875</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="12">
+      <c r="D13" s="22"/>
+      <c r="E13" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="27">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21">
         <v>0.875</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="12">
+      <c r="D14" s="22"/>
+      <c r="E14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I15" s="28">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="24">
         <f>F5</f>
         <v>3951.4519999999993</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="24">
         <f>I15*2</f>
         <v>7902.9039999999986</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="J16" s="29">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="25">
         <f>J15/0.7</f>
         <v>11289.862857142856</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C17" s="6" t="s">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="28">
+      <c r="F17" s="9"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="24">
         <f>J16/1000</f>
         <v>11.289862857142856</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E18" s="6">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
         <f>1-(20/40)^3</f>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D20" s="6">
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
         <f>2.8/0.14</f>
         <v>19.999999999999996</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1944,6 +2102,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>